--- a/contratos/contratos-12-2017.xlsx
+++ b/contratos/contratos-12-2017.xlsx
@@ -925,7 +925,7 @@
     <t>MOLINA SONIA NOEMI</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>MENDIETA NICOLAS BERNARDO</t>
@@ -1369,547 +1369,547 @@
     <t>296</t>
   </si>
   <si>
-    <t>49.600,00</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>49.828,00</t>
-  </si>
-  <si>
-    <t>33.840,00</t>
-  </si>
-  <si>
-    <t>160.065,00</t>
-  </si>
-  <si>
-    <t>105.600,00</t>
-  </si>
-  <si>
-    <t>173.650,00</t>
-  </si>
-  <si>
-    <t>872.110,00</t>
-  </si>
-  <si>
-    <t>70.860,00</t>
-  </si>
-  <si>
-    <t>278.200,00</t>
-  </si>
-  <si>
-    <t>508.800,00</t>
-  </si>
-  <si>
-    <t>59.100,00</t>
-  </si>
-  <si>
-    <t>198.008,00</t>
-  </si>
-  <si>
-    <t>440.000,00</t>
-  </si>
-  <si>
-    <t>195.000,00</t>
-  </si>
-  <si>
-    <t>190.000,00</t>
-  </si>
-  <si>
-    <t>4.489,10</t>
-  </si>
-  <si>
-    <t>435.600,00</t>
-  </si>
-  <si>
-    <t>4.560,00</t>
-  </si>
-  <si>
-    <t>484.057,87</t>
-  </si>
-  <si>
-    <t>561.768,32</t>
-  </si>
-  <si>
-    <t>60.492,00</t>
-  </si>
-  <si>
-    <t>17.475,00</t>
-  </si>
-  <si>
-    <t>256.412,98</t>
-  </si>
-  <si>
-    <t>159.440,21</t>
-  </si>
-  <si>
-    <t>43.619,19</t>
-  </si>
-  <si>
-    <t>456,00</t>
-  </si>
-  <si>
-    <t>31.855,77</t>
-  </si>
-  <si>
-    <t>55.208,00</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>30.789,99</t>
-  </si>
-  <si>
-    <t>27.645,40</t>
-  </si>
-  <si>
-    <t>45,00</t>
-  </si>
-  <si>
-    <t>1.268,78</t>
-  </si>
-  <si>
-    <t>133,64</t>
-  </si>
-  <si>
-    <t>39.761,00</t>
-  </si>
-  <si>
-    <t>146.730,00</t>
-  </si>
-  <si>
-    <t>621.100,00</t>
-  </si>
-  <si>
-    <t>130.430,00</t>
-  </si>
-  <si>
-    <t>8.887,84</t>
-  </si>
-  <si>
-    <t>7.139,55</t>
-  </si>
-  <si>
-    <t>136,00</t>
-  </si>
-  <si>
-    <t>14.059,64</t>
-  </si>
-  <si>
-    <t>7.375,00</t>
-  </si>
-  <si>
-    <t>6.350,00</t>
-  </si>
-  <si>
-    <t>100,44</t>
-  </si>
-  <si>
-    <t>5.413,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>26.769,00</t>
-  </si>
-  <si>
-    <t>1.660,00</t>
-  </si>
-  <si>
-    <t>1.894,91</t>
-  </si>
-  <si>
-    <t>145,00</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>58.485,50</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>356.896,00</t>
-  </si>
-  <si>
-    <t>7.675,00</t>
-  </si>
-  <si>
-    <t>8.251,87</t>
-  </si>
-  <si>
-    <t>1.067.090,00</t>
-  </si>
-  <si>
-    <t>860,00</t>
-  </si>
-  <si>
-    <t>71.090,00</t>
-  </si>
-  <si>
-    <t>35.750,00</t>
-  </si>
-  <si>
-    <t>94.600,00</t>
-  </si>
-  <si>
-    <t>749.100,00</t>
-  </si>
-  <si>
-    <t>44.000,00</t>
-  </si>
-  <si>
-    <t>257.840,00</t>
-  </si>
-  <si>
-    <t>206,00</t>
-  </si>
-  <si>
-    <t>174,55</t>
-  </si>
-  <si>
-    <t>2.800,00</t>
-  </si>
-  <si>
-    <t>25.480,00</t>
-  </si>
-  <si>
-    <t>4.127,00</t>
-  </si>
-  <si>
-    <t>291.598,00</t>
-  </si>
-  <si>
-    <t>3.750,00</t>
-  </si>
-  <si>
-    <t>15.074,00</t>
-  </si>
-  <si>
-    <t>47.240,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>92.070,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>41.651,02</t>
-  </si>
-  <si>
-    <t>18.200,00</t>
-  </si>
-  <si>
-    <t>4.790,00</t>
-  </si>
-  <si>
-    <t>6.450,00</t>
-  </si>
-  <si>
-    <t>10.756,35</t>
-  </si>
-  <si>
-    <t>28.314,00</t>
-  </si>
-  <si>
-    <t>4.050,00</t>
-  </si>
-  <si>
-    <t>7.056,00</t>
-  </si>
-  <si>
-    <t>1.355,00</t>
-  </si>
-  <si>
-    <t>2.909,00</t>
-  </si>
-  <si>
-    <t>13.499,99</t>
-  </si>
-  <si>
-    <t>6.660,00</t>
-  </si>
-  <si>
-    <t>44.190,00</t>
-  </si>
-  <si>
-    <t>64,17</t>
-  </si>
-  <si>
-    <t>24.260,34</t>
-  </si>
-  <si>
-    <t>3.605,90</t>
-  </si>
-  <si>
-    <t>14.245,72</t>
-  </si>
-  <si>
-    <t>844,90</t>
-  </si>
-  <si>
-    <t>25.433,20</t>
-  </si>
-  <si>
-    <t>38.086,30</t>
-  </si>
-  <si>
-    <t>12.198,92</t>
-  </si>
-  <si>
-    <t>2.530,00</t>
-  </si>
-  <si>
-    <t>3.120,00</t>
-  </si>
-  <si>
-    <t>570,00</t>
-  </si>
-  <si>
-    <t>1.067,88</t>
-  </si>
-  <si>
-    <t>1.340,10</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>768,00</t>
-  </si>
-  <si>
-    <t>195,70</t>
-  </si>
-  <si>
-    <t>130,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>9.150,00</t>
-  </si>
-  <si>
-    <t>160.000,00</t>
-  </si>
-  <si>
-    <t>6.365,00</t>
-  </si>
-  <si>
-    <t>4.356,00</t>
-  </si>
-  <si>
-    <t>439.710,00</t>
-  </si>
-  <si>
-    <t>7.850,00</t>
-  </si>
-  <si>
-    <t>84.700,00</t>
-  </si>
-  <si>
-    <t>22.928,00</t>
-  </si>
-  <si>
-    <t>3.875,32</t>
-  </si>
-  <si>
-    <t>13.400,00</t>
-  </si>
-  <si>
-    <t>94.200,00</t>
-  </si>
-  <si>
-    <t>35.580,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>1.966.250,00</t>
-  </si>
-  <si>
-    <t>71.200,00</t>
-  </si>
-  <si>
-    <t>1.483,97</t>
-  </si>
-  <si>
-    <t>4.598,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.040,00</t>
-  </si>
-  <si>
-    <t>4.238,20</t>
-  </si>
-  <si>
-    <t>480.000,00</t>
-  </si>
-  <si>
-    <t>7.776,00</t>
-  </si>
-  <si>
-    <t>6.080,00</t>
-  </si>
-  <si>
-    <t>15.730,00</t>
-  </si>
-  <si>
-    <t>8.687,00</t>
-  </si>
-  <si>
-    <t>7.200,00</t>
-  </si>
-  <si>
-    <t>99,98</t>
-  </si>
-  <si>
-    <t>942,60</t>
-  </si>
-  <si>
-    <t>2.023,68</t>
-  </si>
-  <si>
-    <t>7.150,00</t>
-  </si>
-  <si>
-    <t>966,01</t>
-  </si>
-  <si>
-    <t>992,00</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>42.700,00</t>
-  </si>
-  <si>
-    <t>15.091,27</t>
-  </si>
-  <si>
-    <t>5.125,68</t>
-  </si>
-  <si>
-    <t>2.080,00</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>24,00</t>
-  </si>
-  <si>
-    <t>62.742,18</t>
-  </si>
-  <si>
-    <t>68.590,00</t>
-  </si>
-  <si>
-    <t>26.190,00</t>
-  </si>
-  <si>
-    <t>16.272,00</t>
-  </si>
-  <si>
-    <t>4.615,74</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>30.662,72</t>
-  </si>
-  <si>
-    <t>8.894.538,38</t>
-  </si>
-  <si>
-    <t>381.600,00</t>
-  </si>
-  <si>
-    <t>2.300.000,00</t>
-  </si>
-  <si>
-    <t>135.500,00</t>
-  </si>
-  <si>
-    <t>144.500,00</t>
-  </si>
-  <si>
-    <t>239.000,00</t>
-  </si>
-  <si>
-    <t>245.900,00</t>
-  </si>
-  <si>
-    <t>347.000,00</t>
-  </si>
-  <si>
-    <t>342.500,00</t>
-  </si>
-  <si>
-    <t>244.000,00</t>
-  </si>
-  <si>
-    <t>141.800,00</t>
-  </si>
-  <si>
-    <t>80.000,00</t>
-  </si>
-  <si>
-    <t>6.620,00</t>
-  </si>
-  <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>454.887,50</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>12.705,00</t>
-  </si>
-  <si>
-    <t>114.840,00</t>
-  </si>
-  <si>
-    <t>95.240,00</t>
-  </si>
-  <si>
-    <t>92.600,00</t>
-  </si>
-  <si>
-    <t>32.400,00</t>
-  </si>
-  <si>
-    <t>6.400,00</t>
+    <t>49600.00</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>49828.00</t>
+  </si>
+  <si>
+    <t>33840.00</t>
+  </si>
+  <si>
+    <t>160065.00</t>
+  </si>
+  <si>
+    <t>105600.00</t>
+  </si>
+  <si>
+    <t>173650.00</t>
+  </si>
+  <si>
+    <t>872110.00</t>
+  </si>
+  <si>
+    <t>70860.00</t>
+  </si>
+  <si>
+    <t>278200.00</t>
+  </si>
+  <si>
+    <t>508800.00</t>
+  </si>
+  <si>
+    <t>59100.00</t>
+  </si>
+  <si>
+    <t>198008.00</t>
+  </si>
+  <si>
+    <t>440000.00</t>
+  </si>
+  <si>
+    <t>195000.00</t>
+  </si>
+  <si>
+    <t>190000.00</t>
+  </si>
+  <si>
+    <t>4489.10</t>
+  </si>
+  <si>
+    <t>435600.00</t>
+  </si>
+  <si>
+    <t>4560.00</t>
+  </si>
+  <si>
+    <t>484057.87</t>
+  </si>
+  <si>
+    <t>561768.32</t>
+  </si>
+  <si>
+    <t>60492.00</t>
+  </si>
+  <si>
+    <t>17475.00</t>
+  </si>
+  <si>
+    <t>256412.98</t>
+  </si>
+  <si>
+    <t>159440.21</t>
+  </si>
+  <si>
+    <t>43619.19</t>
+  </si>
+  <si>
+    <t>456.00</t>
+  </si>
+  <si>
+    <t>31855.77</t>
+  </si>
+  <si>
+    <t>55208.00</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>30789.99</t>
+  </si>
+  <si>
+    <t>27645.40</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>1268.78</t>
+  </si>
+  <si>
+    <t>133.64</t>
+  </si>
+  <si>
+    <t>39761.00</t>
+  </si>
+  <si>
+    <t>146730.00</t>
+  </si>
+  <si>
+    <t>621100.00</t>
+  </si>
+  <si>
+    <t>130430.00</t>
+  </si>
+  <si>
+    <t>8887.84</t>
+  </si>
+  <si>
+    <t>7139.55</t>
+  </si>
+  <si>
+    <t>136.00</t>
+  </si>
+  <si>
+    <t>14059.64</t>
+  </si>
+  <si>
+    <t>7375.00</t>
+  </si>
+  <si>
+    <t>6350.00</t>
+  </si>
+  <si>
+    <t>100.44</t>
+  </si>
+  <si>
+    <t>5413.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>26769.00</t>
+  </si>
+  <si>
+    <t>1660.00</t>
+  </si>
+  <si>
+    <t>1894.91</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>58485.50</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>356896.00</t>
+  </si>
+  <si>
+    <t>7675.00</t>
+  </si>
+  <si>
+    <t>8251.87</t>
+  </si>
+  <si>
+    <t>1067090.00</t>
+  </si>
+  <si>
+    <t>860.00</t>
+  </si>
+  <si>
+    <t>71090.00</t>
+  </si>
+  <si>
+    <t>35750.00</t>
+  </si>
+  <si>
+    <t>94600.00</t>
+  </si>
+  <si>
+    <t>749100.00</t>
+  </si>
+  <si>
+    <t>44000.00</t>
+  </si>
+  <si>
+    <t>257840.00</t>
+  </si>
+  <si>
+    <t>206.00</t>
+  </si>
+  <si>
+    <t>174.55</t>
+  </si>
+  <si>
+    <t>2800.00</t>
+  </si>
+  <si>
+    <t>25480.00</t>
+  </si>
+  <si>
+    <t>4127.00</t>
+  </si>
+  <si>
+    <t>291598.00</t>
+  </si>
+  <si>
+    <t>3750.00</t>
+  </si>
+  <si>
+    <t>15074.00</t>
+  </si>
+  <si>
+    <t>47240.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>92070.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>41651.02</t>
+  </si>
+  <si>
+    <t>18200.00</t>
+  </si>
+  <si>
+    <t>4790.00</t>
+  </si>
+  <si>
+    <t>6450.00</t>
+  </si>
+  <si>
+    <t>10756.35</t>
+  </si>
+  <si>
+    <t>28314.00</t>
+  </si>
+  <si>
+    <t>4050.00</t>
+  </si>
+  <si>
+    <t>7056.00</t>
+  </si>
+  <si>
+    <t>1355.00</t>
+  </si>
+  <si>
+    <t>2909.00</t>
+  </si>
+  <si>
+    <t>13499.99</t>
+  </si>
+  <si>
+    <t>6660.00</t>
+  </si>
+  <si>
+    <t>44190.00</t>
+  </si>
+  <si>
+    <t>64.17</t>
+  </si>
+  <si>
+    <t>24260.34</t>
+  </si>
+  <si>
+    <t>3605.90</t>
+  </si>
+  <si>
+    <t>14245.72</t>
+  </si>
+  <si>
+    <t>844.90</t>
+  </si>
+  <si>
+    <t>25433.20</t>
+  </si>
+  <si>
+    <t>38086.30</t>
+  </si>
+  <si>
+    <t>12198.92</t>
+  </si>
+  <si>
+    <t>2530.00</t>
+  </si>
+  <si>
+    <t>3120.00</t>
+  </si>
+  <si>
+    <t>570.00</t>
+  </si>
+  <si>
+    <t>1067.88</t>
+  </si>
+  <si>
+    <t>1340.10</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>768.00</t>
+  </si>
+  <si>
+    <t>195.70</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>9150.00</t>
+  </si>
+  <si>
+    <t>160000.00</t>
+  </si>
+  <si>
+    <t>6365.00</t>
+  </si>
+  <si>
+    <t>4356.00</t>
+  </si>
+  <si>
+    <t>439710.00</t>
+  </si>
+  <si>
+    <t>7850.00</t>
+  </si>
+  <si>
+    <t>84700.00</t>
+  </si>
+  <si>
+    <t>22928.00</t>
+  </si>
+  <si>
+    <t>3875.32</t>
+  </si>
+  <si>
+    <t>13400.00</t>
+  </si>
+  <si>
+    <t>94200.00</t>
+  </si>
+  <si>
+    <t>35580.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>1966250.00</t>
+  </si>
+  <si>
+    <t>71200.00</t>
+  </si>
+  <si>
+    <t>1483.97</t>
+  </si>
+  <si>
+    <t>4598.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2040.00</t>
+  </si>
+  <si>
+    <t>4238.20</t>
+  </si>
+  <si>
+    <t>480000.00</t>
+  </si>
+  <si>
+    <t>7776.00</t>
+  </si>
+  <si>
+    <t>6080.00</t>
+  </si>
+  <si>
+    <t>15730.00</t>
+  </si>
+  <si>
+    <t>8687.00</t>
+  </si>
+  <si>
+    <t>7200.00</t>
+  </si>
+  <si>
+    <t>99.98</t>
+  </si>
+  <si>
+    <t>942.60</t>
+  </si>
+  <si>
+    <t>2023.68</t>
+  </si>
+  <si>
+    <t>7150.00</t>
+  </si>
+  <si>
+    <t>966.01</t>
+  </si>
+  <si>
+    <t>992.00</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>42700.00</t>
+  </si>
+  <si>
+    <t>15091.27</t>
+  </si>
+  <si>
+    <t>5125.68</t>
+  </si>
+  <si>
+    <t>2080.00</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>62742.18</t>
+  </si>
+  <si>
+    <t>68590.00</t>
+  </si>
+  <si>
+    <t>26190.00</t>
+  </si>
+  <si>
+    <t>16272.00</t>
+  </si>
+  <si>
+    <t>4615.74</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>30662.72</t>
+  </si>
+  <si>
+    <t>8894538.38</t>
+  </si>
+  <si>
+    <t>381600.00</t>
+  </si>
+  <si>
+    <t>2300000.00</t>
+  </si>
+  <si>
+    <t>135500.00</t>
+  </si>
+  <si>
+    <t>144500.00</t>
+  </si>
+  <si>
+    <t>239000.00</t>
+  </si>
+  <si>
+    <t>245900.00</t>
+  </si>
+  <si>
+    <t>347000.00</t>
+  </si>
+  <si>
+    <t>342500.00</t>
+  </si>
+  <si>
+    <t>244000.00</t>
+  </si>
+  <si>
+    <t>141800.00</t>
+  </si>
+  <si>
+    <t>80000.00</t>
+  </si>
+  <si>
+    <t>6620.00</t>
+  </si>
+  <si>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>454887.50</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>12705.00</t>
+  </si>
+  <si>
+    <t>114840.00</t>
+  </si>
+  <si>
+    <t>95240.00</t>
+  </si>
+  <si>
+    <t>92600.00</t>
+  </si>
+  <si>
+    <t>32400.00</t>
+  </si>
+  <si>
+    <t>6400.00</t>
   </si>
 </sst>
 </file>
